--- a/DOH_Std_pages.xlsx
+++ b/DOH_Std_pages.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DOH\eaGit\eadoh\eaSandbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DOH\eadoh_public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143D0C8C-2C74-4C6D-A252-7C85F0905867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231C2667-9B51-479F-9513-F62097D3BF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2594,8 +2594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B315" sqref="B315"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
